--- a/results_f16_quad.xlsx
+++ b/results_f16_quad.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -9,6 +9,25 @@
     <sheet name="time_3" sheetId="2" r:id="rId3"/>
     <sheet name="niter_3" sheetId="3" r:id="rId5"/>
     <sheet name="f_val_3" sheetId="4" r:id="rId6"/>
+    <sheet name="viol_3" sheetId="5" r:id="rId7"/>
+    <sheet name="bt_3" sheetId="6" r:id="rId8"/>
+    <sheet name="cg_3" sheetId="7" r:id="rId9"/>
+    <sheet name="n_conv3" sheetId="8" r:id="rId10"/>
+    <sheet name="time_4" sheetId="9" r:id="rId11"/>
+    <sheet name="niter_4" sheetId="10" r:id="rId12"/>
+    <sheet name="f_val_4" sheetId="11" r:id="rId13"/>
+    <sheet name="viol_4" sheetId="12" r:id="rId14"/>
+    <sheet name="bt_4" sheetId="13" r:id="rId15"/>
+    <sheet name="cg_4" sheetId="14" r:id="rId16"/>
+    <sheet name="n_conv4" sheetId="15" r:id="rId17"/>
+    <sheet name="time_5" sheetId="16" r:id="rId18"/>
+    <sheet name="niter_5" sheetId="17" r:id="rId19"/>
+    <sheet name="f_val_5" sheetId="18" r:id="rId20"/>
+    <sheet name="viol_5" sheetId="19" r:id="rId21"/>
+    <sheet name="bt_5" sheetId="20" r:id="rId22"/>
+    <sheet name="cg_5" sheetId="21" r:id="rId23"/>
+    <sheet name="n_conv5" sheetId="22" r:id="rId24"/>
+    <sheet name="ExactComparison" sheetId="23" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -16,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="231">
   <si>
     <t>Row</t>
   </si>
@@ -46,12 +65,675 @@
   </si>
   <si>
     <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>FD1</t>
+  </si>
+  <si>
+    <t>FD2</t>
+  </si>
+  <si>
+    <t>h=1e-2</t>
+  </si>
+  <si>
+    <t>h=1e-4</t>
+  </si>
+  <si>
+    <t>h=1e-6</t>
+  </si>
+  <si>
+    <t>h=1e-8</t>
+  </si>
+  <si>
+    <t>h=1e-10</t>
+  </si>
+  <si>
+    <t>h=1e-12</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>Average Time</t>
+  </si>
+  <si>
+    <t>Average Iter</t>
+  </si>
+  <si>
+    <t>Average fval</t>
+  </si>
+  <si>
+    <t>Violation</t>
+  </si>
+  <si>
+    <t>Average iter Bt</t>
+  </si>
+  <si>
+    <t>Average iter cg</t>
+  </si>
+  <si>
+    <t>N converged</t>
+  </si>
+  <si>
+    <t>n=10^3</t>
+  </si>
+  <si>
+    <t>n=10^4</t>
+  </si>
+  <si>
+    <t>n=10^5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -66,7 +748,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -75,18 +757,1032 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
 </styleSheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" s="0">
+        <v>32.333333333333336</v>
+      </c>
+      <c r="C2" s="0">
+        <v>29.222222222222221</v>
+      </c>
+      <c r="D2" s="0">
+        <v>29.444444444444443</v>
+      </c>
+      <c r="E2" s="0">
+        <v>29.555555555555557</v>
+      </c>
+      <c r="F2" s="0">
+        <v>29.555555555555557</v>
+      </c>
+      <c r="G2" s="0">
+        <v>29.555555555555557</v>
+      </c>
+      <c r="H2" s="0">
+        <v>29.555555555555557</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="0">
+        <v>32.899999999999999</v>
+      </c>
+      <c r="C3" s="0">
+        <v>28.875</v>
+      </c>
+      <c r="D3" s="0">
+        <v>39.600000000000001</v>
+      </c>
+      <c r="E3" s="0">
+        <v>29.333333333333332</v>
+      </c>
+      <c r="F3" s="0">
+        <v>29.555555555555557</v>
+      </c>
+      <c r="G3" s="0">
+        <v>29.555555555555557</v>
+      </c>
+      <c r="H3" s="0">
+        <v>29.555555555555557</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="12.37890625" customWidth="true"/>
+    <col min="3" max="3" width="12.37890625" customWidth="true"/>
+    <col min="4" max="4" width="12.37890625" customWidth="true"/>
+    <col min="5" max="5" width="12.37890625" customWidth="true"/>
+    <col min="6" max="6" width="12.37890625" customWidth="true"/>
+    <col min="7" max="7" width="12.37890625" customWidth="true"/>
+    <col min="8" max="8" width="12.37890625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="0">
+        <v>-4159.9324479061434</v>
+      </c>
+      <c r="C2" s="0">
+        <v>-4159.9324479061434</v>
+      </c>
+      <c r="D2" s="0">
+        <v>-4159.9324479061497</v>
+      </c>
+      <c r="E2" s="0">
+        <v>-4159.9324479061488</v>
+      </c>
+      <c r="F2" s="0">
+        <v>-4159.9324479061488</v>
+      </c>
+      <c r="G2" s="0">
+        <v>-4159.9324479061488</v>
+      </c>
+      <c r="H2" s="0">
+        <v>-4159.9324479061488</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="0">
+        <v>-4159.9324479061397</v>
+      </c>
+      <c r="C3" s="0">
+        <v>-4159.9324479061415</v>
+      </c>
+      <c r="D3" s="0">
+        <v>-4159.932447906147</v>
+      </c>
+      <c r="E3" s="0">
+        <v>-4159.9324479061388</v>
+      </c>
+      <c r="F3" s="0">
+        <v>-4159.9324479061488</v>
+      </c>
+      <c r="G3" s="0">
+        <v>-4159.9324479061488</v>
+      </c>
+      <c r="H3" s="0">
+        <v>-4159.9324479061488</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="0">
+        <v>7.2222222222222223</v>
+      </c>
+      <c r="C2" s="0">
+        <v>7.4444444444444446</v>
+      </c>
+      <c r="D2" s="0">
+        <v>7.1111111111111107</v>
+      </c>
+      <c r="E2" s="0">
+        <v>6.8888888888888893</v>
+      </c>
+      <c r="F2" s="0">
+        <v>6.8888888888888893</v>
+      </c>
+      <c r="G2" s="0">
+        <v>6.8888888888888893</v>
+      </c>
+      <c r="H2" s="0">
+        <v>6.8888888888888893</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="0">
+        <v>7.0999999999999996</v>
+      </c>
+      <c r="C3" s="0">
+        <v>6.5</v>
+      </c>
+      <c r="D3" s="0">
+        <v>6.7000000000000002</v>
+      </c>
+      <c r="E3" s="0">
+        <v>7.5555555555555554</v>
+      </c>
+      <c r="F3" s="0">
+        <v>6.8888888888888893</v>
+      </c>
+      <c r="G3" s="0">
+        <v>6.8888888888888893</v>
+      </c>
+      <c r="H3" s="0">
+        <v>6.8888888888888893</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1.5736939331086337</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0.39216241134344582</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.58185199574088464</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.37334124262041885</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0.37334124262041885</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0.37334124262041885</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0.37334124262041885</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="0">
+        <v>1.8003450093967335</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.36236718517574057</v>
+      </c>
+      <c r="D3" s="0">
+        <v>4.2899228012131232</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.38977348882514612</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.37334124262041885</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.37334124262041885</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.37334124262041885</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="10.7109375" customWidth="true"/>
+    <col min="6" max="6" width="10.7109375" customWidth="true"/>
+    <col min="7" max="7" width="10.7109375" customWidth="true"/>
+    <col min="8" max="8" width="10.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="0">
+        <v>33.915437357553465</v>
+      </c>
+      <c r="C2" s="0">
+        <v>29.348015243058342</v>
+      </c>
+      <c r="D2" s="0">
+        <v>30.576130889597064</v>
+      </c>
+      <c r="E2" s="0">
+        <v>30.326750200176978</v>
+      </c>
+      <c r="F2" s="0">
+        <v>30.326750200176978</v>
+      </c>
+      <c r="G2" s="0">
+        <v>30.326750200176978</v>
+      </c>
+      <c r="H2" s="0">
+        <v>30.326750200176978</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="0">
+        <v>33.947414099588016</v>
+      </c>
+      <c r="C3" s="0">
+        <v>29.255664711632456</v>
+      </c>
+      <c r="D3" s="0">
+        <v>40.446659863823257</v>
+      </c>
+      <c r="E3" s="0">
+        <v>28.099796993870974</v>
+      </c>
+      <c r="F3" s="0">
+        <v>30.326750200176978</v>
+      </c>
+      <c r="G3" s="0">
+        <v>30.326750200176978</v>
+      </c>
+      <c r="H3" s="0">
+        <v>30.326750200176978</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="6.82421875" customWidth="true"/>
+    <col min="3" max="3" width="6.82421875" customWidth="true"/>
+    <col min="4" max="4" width="6.82421875" customWidth="true"/>
+    <col min="5" max="5" width="6.82421875" customWidth="true"/>
+    <col min="6" max="6" width="7.82421875" customWidth="true"/>
+    <col min="7" max="7" width="7.82421875" customWidth="true"/>
+    <col min="8" max="8" width="5.6015625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="0">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0">
+        <v>9</v>
+      </c>
+      <c r="F2" s="0">
+        <v>9</v>
+      </c>
+      <c r="G2" s="0">
+        <v>9</v>
+      </c>
+      <c r="H2" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="0">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0">
+        <v>9</v>
+      </c>
+      <c r="F3" s="0">
+        <v>9</v>
+      </c>
+      <c r="G3" s="0">
+        <v>9</v>
+      </c>
+      <c r="H3" s="0">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="10.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" s="0">
+        <v>7.44131593</v>
+      </c>
+      <c r="C2" s="0">
+        <v>4.1246595444444445</v>
+      </c>
+      <c r="D2" s="0">
+        <v>1.7908844111111111</v>
+      </c>
+      <c r="E2" s="0">
+        <v>10.722721545454545</v>
+      </c>
+      <c r="F2" s="0">
+        <v>10.807325290909091</v>
+      </c>
+      <c r="G2" s="0">
+        <v>10.737843627272728</v>
+      </c>
+      <c r="H2" s="0">
+        <v>10.719656936363636</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="0">
+        <v>29.608671766666664</v>
+      </c>
+      <c r="C3" s="0">
+        <v>7.697176027272727</v>
+      </c>
+      <c r="D3" s="0">
+        <v>7.1600179909090915</v>
+      </c>
+      <c r="E3" s="0">
+        <v>19.091371955555555</v>
+      </c>
+      <c r="F3" s="0">
+        <v>23.055721954545454</v>
+      </c>
+      <c r="G3" s="0">
+        <v>23.135301509090912</v>
+      </c>
+      <c r="H3" s="0">
+        <v>10.719656936363636</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="6.82421875" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="0">
+        <v>87.900000000000006</v>
+      </c>
+      <c r="C2" s="0">
+        <v>64.222222222222229</v>
+      </c>
+      <c r="D2" s="0">
+        <v>46.111111111111114</v>
+      </c>
+      <c r="E2" s="0">
+        <v>112.63636363636364</v>
+      </c>
+      <c r="F2" s="0">
+        <v>112.63636363636364</v>
+      </c>
+      <c r="G2" s="0">
+        <v>112.63636363636364</v>
+      </c>
+      <c r="H2" s="0">
+        <v>112.63636363636364</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="0">
+        <v>138.11111111111111</v>
+      </c>
+      <c r="C3" s="0">
+        <v>50.727272727272727</v>
+      </c>
+      <c r="D3" s="0">
+        <v>48</v>
+      </c>
+      <c r="E3" s="0">
+        <v>96.555555555555557</v>
+      </c>
+      <c r="F3" s="0">
+        <v>112.63636363636364</v>
+      </c>
+      <c r="G3" s="0">
+        <v>112.63636363636364</v>
+      </c>
+      <c r="H3" s="0">
+        <v>112.63636363636364</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="12.37890625" customWidth="true"/>
+    <col min="3" max="3" width="12.37890625" customWidth="true"/>
+    <col min="4" max="4" width="12.37890625" customWidth="true"/>
+    <col min="5" max="5" width="12.37890625" customWidth="true"/>
+    <col min="6" max="6" width="12.37890625" customWidth="true"/>
+    <col min="7" max="7" width="12.37890625" customWidth="true"/>
+    <col min="8" max="8" width="12.37890625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="0">
+        <v>-41443.758305751675</v>
+      </c>
+      <c r="C2" s="0">
+        <v>-41443.758305751522</v>
+      </c>
+      <c r="D2" s="0">
+        <v>-41443.758305751653</v>
+      </c>
+      <c r="E2" s="0">
+        <v>-41443.758305751573</v>
+      </c>
+      <c r="F2" s="0">
+        <v>-41443.758305751573</v>
+      </c>
+      <c r="G2" s="0">
+        <v>-41443.758305751573</v>
+      </c>
+      <c r="H2" s="0">
+        <v>-41443.758305751573</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="0">
+        <v>-41443.758305751289</v>
+      </c>
+      <c r="C3" s="0">
+        <v>-41443.758305751631</v>
+      </c>
+      <c r="D3" s="0">
+        <v>-41443.758305751624</v>
+      </c>
+      <c r="E3" s="0">
+        <v>-41443.758305751595</v>
+      </c>
+      <c r="F3" s="0">
+        <v>-41443.758305751573</v>
+      </c>
+      <c r="G3" s="0">
+        <v>-41443.758305751573</v>
+      </c>
+      <c r="H3" s="0">
+        <v>-41443.758305751573</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="6.82421875" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="0">
+        <v>7.4000000000000004</v>
+      </c>
+      <c r="C2" s="0">
+        <v>6.2222222222222223</v>
+      </c>
+      <c r="D2" s="0">
+        <v>5.8888888888888893</v>
+      </c>
+      <c r="E2" s="0">
+        <v>6.8181818181818183</v>
+      </c>
+      <c r="F2" s="0">
+        <v>6.8181818181818183</v>
+      </c>
+      <c r="G2" s="0">
+        <v>6.8181818181818183</v>
+      </c>
+      <c r="H2" s="0">
+        <v>6.8181818181818183</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="0">
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="C3" s="0">
+        <v>7.4545454545454541</v>
+      </c>
+      <c r="D3" s="0">
+        <v>6.8181818181818183</v>
+      </c>
+      <c r="E3" s="0">
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="F3" s="0">
+        <v>6.8181818181818183</v>
+      </c>
+      <c r="G3" s="0">
+        <v>6.8181818181818183</v>
+      </c>
+      <c r="H3" s="0">
+        <v>6.8181818181818183</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -97,92 +1793,510 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="true"/>
-    <col min="2" max="2" width="10.5546875" customWidth="true"/>
-    <col min="3" max="3" width="13.5546875" customWidth="true"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true"/>
-    <col min="5" max="5" width="10.5546875" customWidth="true"/>
-    <col min="6" max="6" width="10.5546875" customWidth="true"/>
-    <col min="7" max="7" width="9.5546875" customWidth="true"/>
-    <col min="8" max="8" width="10.5546875" customWidth="true"/>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="9.7109375" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" customWidth="true"/>
+    <col min="4" max="4" width="10.7109375" customWidth="true"/>
+    <col min="5" max="5" width="10.7109375" customWidth="true"/>
+    <col min="6" max="6" width="10.7109375" customWidth="true"/>
+    <col min="7" max="7" width="10.7109375" customWidth="true"/>
+    <col min="8" max="8" width="10.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0">
-        <v>0.032448560000000001</v>
+        <v>0.0055531000000000009</v>
       </c>
       <c r="C2" s="0">
-        <v>0.033317354545454543</v>
+        <v>0.0060176666666666668</v>
       </c>
       <c r="D2" s="0">
-        <v>0.028804649999999998</v>
+        <v>0.0061493499999999996</v>
       </c>
       <c r="E2" s="0">
-        <v>0.029720309999999993</v>
+        <v>0.0060640800000000012</v>
       </c>
       <c r="F2" s="0">
-        <v>0.031996330000000003</v>
+        <v>0.0057085900000000004</v>
       </c>
       <c r="G2" s="0">
-        <v>0.029882399999999996</v>
+        <v>0.0054813700000000002</v>
       </c>
       <c r="H2" s="0">
-        <v>0.038581440000000002</v>
+        <v>0.0059797800000000014</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0">
-        <v>0.22969701818181817</v>
+        <v>0.029210462500000003</v>
       </c>
       <c r="C3" s="0">
-        <v>0.22362271111111109</v>
+        <v>0.030757120000000006</v>
       </c>
       <c r="D3" s="0">
-        <v>0.20024420999999998</v>
+        <v>0.028964570000000002</v>
       </c>
       <c r="E3" s="0">
-        <v>0.19315055454545457</v>
+        <v>0.029214960000000002</v>
       </c>
       <c r="F3" s="0">
-        <v>0.20718424999999999</v>
+        <v>0.030526350000000001</v>
       </c>
       <c r="G3" s="0">
-        <v>0.19948653999999999</v>
+        <v>0.029714530000000006</v>
       </c>
       <c r="H3" s="0">
-        <v>0.038581440000000002</v>
+        <v>0.0059797800000000014</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="10.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="0">
+        <v>3.6127695100716686</v>
+      </c>
+      <c r="C2" s="0">
+        <v>2.9879628308564858</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.08028377713944794</v>
+      </c>
+      <c r="E2" s="0">
+        <v>3.6824671254790728</v>
+      </c>
+      <c r="F2" s="0">
+        <v>3.6824671254790728</v>
+      </c>
+      <c r="G2" s="0">
+        <v>3.6824671254790728</v>
+      </c>
+      <c r="H2" s="0">
+        <v>3.6824671254790728</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" s="0">
+        <v>3.9200935841656284</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.73790664144610252</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.11667426665950074</v>
+      </c>
+      <c r="E3" s="0">
+        <v>3.6658501698160251</v>
+      </c>
+      <c r="F3" s="0">
+        <v>3.6824671254790728</v>
+      </c>
+      <c r="G3" s="0">
+        <v>3.6824671254790728</v>
+      </c>
+      <c r="H3" s="0">
+        <v>3.6824671254790728</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B2" s="0">
+        <v>59.569736752139306</v>
+      </c>
+      <c r="C2" s="0">
+        <v>59.898915122495133</v>
+      </c>
+      <c r="D2" s="0">
+        <v>56.015364346563871</v>
+      </c>
+      <c r="E2" s="0">
+        <v>60.620530267350837</v>
+      </c>
+      <c r="F2" s="0">
+        <v>60.620530267350837</v>
+      </c>
+      <c r="G2" s="0">
+        <v>60.620530267350837</v>
+      </c>
+      <c r="H2" s="0">
+        <v>60.620530267350837</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="0">
+        <v>59.723437331857767</v>
+      </c>
+      <c r="C3" s="0">
+        <v>56.127452882209155</v>
+      </c>
+      <c r="D3" s="0">
+        <v>56.658522980951368</v>
+      </c>
+      <c r="E3" s="0">
+        <v>62.274796574802785</v>
+      </c>
+      <c r="F3" s="0">
+        <v>60.620530267350837</v>
+      </c>
+      <c r="G3" s="0">
+        <v>60.620530267350837</v>
+      </c>
+      <c r="H3" s="0">
+        <v>60.620530267350837</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="6.82421875" customWidth="true"/>
+    <col min="3" max="3" width="6.82421875" customWidth="true"/>
+    <col min="4" max="4" width="6.82421875" customWidth="true"/>
+    <col min="5" max="5" width="6.82421875" customWidth="true"/>
+    <col min="6" max="6" width="7.82421875" customWidth="true"/>
+    <col min="7" max="7" width="7.82421875" customWidth="true"/>
+    <col min="8" max="8" width="5.6015625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="0">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0">
+        <v>11</v>
+      </c>
+      <c r="F2" s="0">
+        <v>11</v>
+      </c>
+      <c r="G2" s="0">
+        <v>11</v>
+      </c>
+      <c r="H2" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="0">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0">
+        <v>11</v>
+      </c>
+      <c r="D3" s="0">
+        <v>11</v>
+      </c>
+      <c r="E3" s="0">
+        <v>9</v>
+      </c>
+      <c r="F3" s="0">
+        <v>11</v>
+      </c>
+      <c r="G3" s="0">
+        <v>11</v>
+      </c>
+      <c r="H3" s="0">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.15625" customWidth="true"/>
+    <col min="2" max="2" width="12.37890625" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.37890625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.0059797800000000014</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0.10978958888888889</v>
+      </c>
+      <c r="D2" s="0">
+        <v>10.719656936363636</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3" s="0">
+        <v>20.800000000000001</v>
+      </c>
+      <c r="C3" s="0">
+        <v>29.555555555555557</v>
+      </c>
+      <c r="D3" s="0">
+        <v>112.63636363636364</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="0">
+        <v>-427.40447637484976</v>
+      </c>
+      <c r="C4" s="0">
+        <v>-4159.9324479061488</v>
+      </c>
+      <c r="D4" s="0">
+        <v>-41443.758305751573</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="0">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="C5" s="0">
+        <v>6.8888888888888893</v>
+      </c>
+      <c r="D5" s="0">
+        <v>6.8181818181818183</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.44870091896407682</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.37334124262041885</v>
+      </c>
+      <c r="D6" s="0">
+        <v>3.6824671254790728</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="0">
+        <v>14.463381370091895</v>
+      </c>
+      <c r="C7" s="0">
+        <v>30.326750200176978</v>
+      </c>
+      <c r="D7" s="0">
+        <v>60.620530267350837</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="0">
+        <v>10</v>
+      </c>
+      <c r="C8" s="0">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -197,92 +2311,92 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="true"/>
-    <col min="2" max="2" width="6.6640625" customWidth="true"/>
-    <col min="3" max="3" width="11.5546875" customWidth="true"/>
-    <col min="4" max="4" width="6.6640625" customWidth="true"/>
-    <col min="5" max="5" width="6.6640625" customWidth="true"/>
-    <col min="6" max="6" width="7.6640625" customWidth="true"/>
-    <col min="7" max="7" width="7.6640625" customWidth="true"/>
-    <col min="8" max="8" width="5.44140625" customWidth="true"/>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="6.82421875" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="6.82421875" customWidth="true"/>
+    <col min="5" max="5" width="6.82421875" customWidth="true"/>
+    <col min="6" max="6" width="7.82421875" customWidth="true"/>
+    <col min="7" max="7" width="7.82421875" customWidth="true"/>
+    <col min="8" max="8" width="5.6015625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B2" s="0">
-        <v>20.199999999999999</v>
+        <v>20.600000000000001</v>
       </c>
       <c r="C2" s="0">
-        <v>20.454545454545453</v>
+        <v>20.444444444444443</v>
       </c>
       <c r="D2" s="0">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="E2" s="0">
-        <v>20.600000000000001</v>
+        <v>20.800000000000001</v>
       </c>
       <c r="F2" s="0">
-        <v>20.600000000000001</v>
+        <v>20.800000000000001</v>
       </c>
       <c r="G2" s="0">
-        <v>20.600000000000001</v>
+        <v>20.800000000000001</v>
       </c>
       <c r="H2" s="0">
-        <v>20.600000000000001</v>
+        <v>20.800000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0">
-        <v>20.454545454545453</v>
+        <v>20.375</v>
       </c>
       <c r="C3" s="0">
-        <v>20.666666666666668</v>
+        <v>20.899999999999999</v>
       </c>
       <c r="D3" s="0">
-        <v>20.100000000000001</v>
+        <v>20.300000000000001</v>
       </c>
       <c r="E3" s="0">
-        <v>20.727272727272727</v>
+        <v>20.5</v>
       </c>
       <c r="F3" s="0">
-        <v>20.600000000000001</v>
+        <v>20.800000000000001</v>
       </c>
       <c r="G3" s="0">
-        <v>20.600000000000001</v>
+        <v>20.800000000000001</v>
       </c>
       <c r="H3" s="0">
-        <v>20.600000000000001</v>
+        <v>20.800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -297,92 +2411,577 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="true"/>
-    <col min="2" max="2" width="12.21875" customWidth="true"/>
-    <col min="3" max="3" width="12.21875" customWidth="true"/>
-    <col min="4" max="4" width="12.21875" customWidth="true"/>
-    <col min="5" max="5" width="12.21875" customWidth="true"/>
-    <col min="6" max="6" width="12.21875" customWidth="true"/>
-    <col min="7" max="7" width="12.21875" customWidth="true"/>
-    <col min="8" max="8" width="12.21875" customWidth="true"/>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="12.37890625" customWidth="true"/>
+    <col min="3" max="3" width="12.37890625" customWidth="true"/>
+    <col min="4" max="4" width="12.37890625" customWidth="true"/>
+    <col min="5" max="5" width="12.37890625" customWidth="true"/>
+    <col min="6" max="6" width="12.37890625" customWidth="true"/>
+    <col min="7" max="7" width="12.37890625" customWidth="true"/>
+    <col min="8" max="8" width="12.37890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B2" s="0">
-        <v>-427.40447637484931</v>
+        <v>-427.4044763748492</v>
       </c>
       <c r="C2" s="0">
-        <v>-427.40447637484982</v>
+        <v>-427.40447637484971</v>
       </c>
       <c r="D2" s="0">
+        <v>-427.40447637484942</v>
+      </c>
+      <c r="E2" s="0">
         <v>-427.40447637484976</v>
       </c>
-      <c r="E2" s="0">
-        <v>-427.40447637484959</v>
-      </c>
       <c r="F2" s="0">
-        <v>-427.40447637484959</v>
+        <v>-427.40447637484976</v>
       </c>
       <c r="G2" s="0">
-        <v>-427.40447637484959</v>
+        <v>-427.40447637484976</v>
       </c>
       <c r="H2" s="0">
-        <v>-427.40447637484959</v>
+        <v>-427.40447637484976</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0">
-        <v>-427.40447637484942</v>
+        <v>-427.40447637484931</v>
       </c>
       <c r="C3" s="0">
-        <v>-427.40447637484971</v>
+        <v>-427.40447637484993</v>
       </c>
       <c r="D3" s="0">
+        <v>-427.40447637484965</v>
+      </c>
+      <c r="E3" s="0">
         <v>-427.40447637484948</v>
       </c>
+      <c r="F3" s="0">
+        <v>-427.40447637484976</v>
+      </c>
+      <c r="G3" s="0">
+        <v>-427.40447637484976</v>
+      </c>
+      <c r="H3" s="0">
+        <v>-427.40447637484976</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="6.82421875" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="6.82421875" customWidth="true"/>
+    <col min="5" max="5" width="6.82421875" customWidth="true"/>
+    <col min="6" max="6" width="7.82421875" customWidth="true"/>
+    <col min="7" max="7" width="7.82421875" customWidth="true"/>
+    <col min="8" max="8" width="5.6015625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="0">
+        <v>3.6000000000000001</v>
+      </c>
+      <c r="C2" s="0">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="D2" s="0">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="E2" s="0">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="F2" s="0">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="G2" s="0">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="H2" s="0">
+        <v>3.7000000000000002</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="0">
+        <v>3.75</v>
+      </c>
+      <c r="C3" s="0">
+        <v>3.7000000000000002</v>
+      </c>
+      <c r="D3" s="0">
+        <v>3.7000000000000002</v>
+      </c>
       <c r="E3" s="0">
-        <v>-427.40447637484954</v>
+        <v>3.7000000000000002</v>
       </c>
       <c r="F3" s="0">
-        <v>-427.40447637484959</v>
+        <v>3.7000000000000002</v>
       </c>
       <c r="G3" s="0">
-        <v>-427.40447637484959</v>
+        <v>3.7000000000000002</v>
       </c>
       <c r="H3" s="0">
-        <v>-427.40447637484959</v>
+        <v>3.7000000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="10.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.45326494761277364</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0.42532206119162647</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.99746632996632978</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.44870091896407682</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0.44870091896407682</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0.44870091896407682</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0.44870091896407682</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.4619581521326373</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.47191605495953315</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.44174242424242421</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.43468576744892529</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.44870091896407682</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.44870091896407682</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.44870091896407682</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="10.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="11.7109375" customWidth="true"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true"/>
+    <col min="8" max="8" width="11.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="0">
+        <v>14.459933496455232</v>
+      </c>
+      <c r="C2" s="0">
+        <v>13.796070086649795</v>
+      </c>
+      <c r="D2" s="0">
+        <v>14.522936507936507</v>
+      </c>
+      <c r="E2" s="0">
+        <v>14.463381370091895</v>
+      </c>
+      <c r="F2" s="0">
+        <v>14.463381370091895</v>
+      </c>
+      <c r="G2" s="0">
+        <v>14.463381370091895</v>
+      </c>
+      <c r="H2" s="0">
+        <v>14.463381370091895</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="0">
+        <v>13.735683535254475</v>
+      </c>
+      <c r="C3" s="0">
+        <v>14.445452914235526</v>
+      </c>
+      <c r="D3" s="0">
+        <v>13.761976911976911</v>
+      </c>
+      <c r="E3" s="0">
+        <v>14.088738512949039</v>
+      </c>
+      <c r="F3" s="0">
+        <v>14.463381370091895</v>
+      </c>
+      <c r="G3" s="0">
+        <v>14.463381370091895</v>
+      </c>
+      <c r="H3" s="0">
+        <v>14.463381370091895</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="6.82421875" customWidth="true"/>
+    <col min="3" max="3" width="6.82421875" customWidth="true"/>
+    <col min="4" max="4" width="6.82421875" customWidth="true"/>
+    <col min="5" max="5" width="6.82421875" customWidth="true"/>
+    <col min="6" max="6" width="7.82421875" customWidth="true"/>
+    <col min="7" max="7" width="7.82421875" customWidth="true"/>
+    <col min="8" max="8" width="5.6015625" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="0">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0">
+        <v>9</v>
+      </c>
+      <c r="D2" s="0">
+        <v>10</v>
+      </c>
+      <c r="E2" s="0">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0">
+        <v>10</v>
+      </c>
+      <c r="G2" s="0">
+        <v>10</v>
+      </c>
+      <c r="H2" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="0">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0">
+        <v>10</v>
+      </c>
+      <c r="E3" s="0">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0">
+        <v>10</v>
+      </c>
+      <c r="G3" s="0">
+        <v>10</v>
+      </c>
+      <c r="H3" s="0">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.82421875" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.15519677777777777</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0.1096548888888889</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.11316866666666664</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.11357285555555555</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0.11107088888888889</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0.11336108888888889</v>
+      </c>
+      <c r="H2" s="0">
+        <v>0.10978958888888889</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.55448593999999995</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.43438076250000002</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.74857032999999995</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.43659584444444444</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.44320263333333332</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.44492584444444438</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.10978958888888889</v>
       </c>
     </row>
   </sheetData>
